--- a/2020_docs/03_基本設計/フォーマット_DB_20210523.xlsx
+++ b/2020_docs/03_基本設計/フォーマット_DB_20210523.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2020_docs\03_基本設計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39BADD-8ED0-4250-8C9E-52CF6A04025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28995" windowHeight="18195" activeTab="1"/>
+    <workbookView xWindow="3060" yWindow="3150" windowWidth="23130" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -168,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -630,19 +636,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -839,12 +843,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -1803,7 +1805,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D83 B2:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D83 B2:B83" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
